--- a/public/data/contracting-projects.xlsx
+++ b/public/data/contracting-projects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\GitHub\amoud\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>/projects/mehr1.jpg, /projects/mehr2.jpg</t>
-  </si>
-  <si>
-    <t>/projects/tower1.jpg, /projects/tower2.jpg</t>
   </si>
 </sst>
 </file>
@@ -437,7 +434,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,9 +494,7 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>

--- a/public/data/contracting-projects.xlsx
+++ b/public/data/contracting-projects.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>/projects/mehr1.jpg, /projects/mehr2.jpg</t>
+  </si>
+  <si>
+    <t>/projects/tower1.jpg, /projects/tower2.jpg</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +497,9 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>

--- a/public/data/contracting-projects.xlsx
+++ b/public/data/contracting-projects.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -36,28 +36,244 @@
     <t>images</t>
   </si>
   <si>
-    <t>پروژه پیمانکاری بیمارستان مهر</t>
-  </si>
-  <si>
-    <t>پروژه پیمانکاری برج تجاری</t>
-  </si>
-  <si>
-    <t>احداث و تکمیل بیمارستان ۲۰۰ تخت‌خوابی</t>
-  </si>
-  <si>
-    <t>ساخت برج تجاری ۳۰ طبقه در تهران</t>
-  </si>
-  <si>
-    <t>شامل بخش‌های اورژانس، ICU، بخش‌های تخصصی و تأسیسات کامل.</t>
-  </si>
-  <si>
-    <t>دارای مراکز خرید، دفاتر تجاری، و پارکینگ چندطبقه.</t>
-  </si>
-  <si>
     <t>/projects/mehr1.jpg, /projects/mehr2.jpg</t>
   </si>
   <si>
     <t>/projects/tower1.jpg, /projects/tower2.jpg</t>
+  </si>
+  <si>
+    <t>برج های مسکونی یاس همت</t>
+  </si>
+  <si>
+    <t>پروژه 2800 واحدی آسمان البرز بلوک های تیپ M</t>
+  </si>
+  <si>
+    <t>پروژه 2800 واحدی آسمان البرز بلوک های تیپ C و تیپ B</t>
+  </si>
+  <si>
+    <t>پروژه 1400 واحدی افق اکباتان 17000 مترمربع (بلوک های تجاری )</t>
+  </si>
+  <si>
+    <t>برج های مجتمع مسکونی نگین ساحل 50000 مترمربع</t>
+  </si>
+  <si>
+    <t>پروژه جمع آوری آب های سطحی ، فاضلاب ، آب رسانی و روشنایی محوطه پروژه 1400 واحدی افق اکباتان</t>
+  </si>
+  <si>
+    <t>پروژه برج های سروناز بلوک مسکونی B1 13000 متر</t>
+  </si>
+  <si>
+    <t>پروژه برج های سروناز بلوک مسکونی A1 13000 متر</t>
+  </si>
+  <si>
+    <t>عملیات تهیه و ساخت فاز 2 نوسازی چراغ های شهری سازمان زیباسازی شهرداری تهران</t>
+  </si>
+  <si>
+    <t>پروژه 1400 واحدی افق اکباتان 18500 مترمربع بلوک مسکونی C</t>
+  </si>
+  <si>
+    <t>پروژه 1400 واحدی افق اکباتان 16000 مترمربع بلوک مسکونی D</t>
+  </si>
+  <si>
+    <t>پروژه برج های سروناز بلوک مسکونی C2B 114 واحدی</t>
+  </si>
+  <si>
+    <t>پروژه برج های سروناز بلوک های مسکونی A2 و B2 7000 مترمربع</t>
+  </si>
+  <si>
+    <t>پروژه برج های سروناز بلوک های مسکونی A3 و B3 11000 مترمربع</t>
+  </si>
+  <si>
+    <t>پروژه برج های سروناز بلوک های مسکونی A4 و B4 5000 مترمربع</t>
+  </si>
+  <si>
+    <t>پروژه برج های سروناز بلوک های مسکونی A5 و B5 10000 مترمربع</t>
+  </si>
+  <si>
+    <t>پروژه مسکونی ارغوان در 7 بلوک مجموعا 128 واحد</t>
+  </si>
+  <si>
+    <t>پروژه ساختمان اداری و تجاری جام خلیج فارس (ملت2)</t>
+  </si>
+  <si>
+    <t>پروژه 260 واحدی اساتید دانشگاه شریف (ورد آورد) 25000 مترمربع</t>
+  </si>
+  <si>
+    <t>پروژه بیمارستان امام علی(ع) کرج</t>
+  </si>
+  <si>
+    <t>ساخت و طراحی مجتمع مسکونی آسمان سعادت آباد (EPC)</t>
+  </si>
+  <si>
+    <t>ساخت و طراحی مجتمع مسکونی فراز سعادت آباد (EPC)</t>
+  </si>
+  <si>
+    <t>پروژه ساختمانهای جنبی کارخانه سیمان ساروج بوشهر (6000 تن در روز)</t>
+  </si>
+  <si>
+    <t>پروژه استخر چهارفصل مجموعه ورزشی انقلاب</t>
+  </si>
+  <si>
+    <t>پروژه کارخانه تولید نخ تایر شرکت تایر کورد واقع در کرمانشاه</t>
+  </si>
+  <si>
+    <t>پروژه توسعه و بازسازی مرکز یاورشهر 3</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک‌های C1 و C2 با زیربنای بیش از 60,000 مترمربع</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک‌های تیپ M در مجتمع مسکونی 2800 واحدی آسمان البرز</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک‌های تیپ C و B در مجتمع مسکونی 2800 واحدی آسمان البرز</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک‌های تجاری با زیربنای 17,000 مترمربع در پروژه 1400 واحدی افق اکباتان</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال مجتمع مسکونی نگین ساحل با زیربنای 50,000 مترمربع</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات جمع‌آوری آب‌های سطحی، فاضلاب، آب‌رسانی و روشنایی محوطه در پروژه 1400 واحدی افق اکباتان</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک مسکونی B1 با 13,000 مترمربع در برج‌های سروناز</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک مسکونی A1 با 13,000 مترمربع در برج‌های سروناز</t>
+  </si>
+  <si>
+    <t>عملیات تهیه و ساخت فاز 2 نوسازی چراغ‌های شهری سازمان زیباسازی شهرداری تهران</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک مسکونی C با 18,500 مترمربع در پروژه 1400 واحدی افق اکباتان</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک مسکونی D با 16,000 مترمربع در پروژه 1400 واحدی افق اکباتان</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک مسکونی C2B 114 واحدی در برج‌های سروناز</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک‌های A2 و B2 با 7,000 مترمربع در برج‌های سروناز</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک‌های A3 و B3 با 11,000 مترمربع در برج‌های سروناز</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک‌های A4 و B4 با 5,000 مترمربع در برج‌های سروناز</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بلوک‌های A5 و B5 با 10,000 مترمربع در برج‌های سروناز</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال مجتمع مسکونی ارغوان با 7 بلوک و 128 واحد</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال ساختمان اداری-تجاری جام خلیج فارس (ملت2)</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال پروژه 260 واحدی اساتید دانشگاه شریف با 25,000 مترمربع</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال بیمارستان امام علی (ع) کرج</t>
+  </si>
+  <si>
+    <t>ساخت و طراحی EPC مجتمع مسکونی آسمان سعادت آباد</t>
+  </si>
+  <si>
+    <t>ساخت و طراحی EPC مجتمع مسکونی فراز سعادت آباد</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال ساختمان‌های جنبی کارخانه سیمان ساروج بوشهر (6000 تن/روز)</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال استخر چهارفصل مجموعه ورزشی انقلاب</t>
+  </si>
+  <si>
+    <t>اجرای تاسیسات الکتریکال کارخانه تولید نخ تایر تایر کورد کرمانشاه</t>
+  </si>
+  <si>
+    <t>توسعه و بازسازی تاسیسات الکتریکال مرکز یاورشهر 3</t>
+  </si>
+  <si>
+    <t>پروژه برج‌های مسکونی همت یاس واقع در منطقه 22 تهران، یکی از پروژه‌های شاخص مسکونی در غرب پایتخت به شمار می‌رود که با هدف ایجاد مجموعه‌ای مدرن و مجهز برای سکونت طراحی و اجرا شده است. این پروژه شامل برج‌های بلندمرتبه با کاربری مسکونی بوده و در مجاورت بزرگراه همت و در نزدیکی دریاچه شهدای خلیج فارس قرار دارد که از موقعیت مکانی ممتاز و دسترسی‌های شهری مناسب برخوردار است. شرکت آمود گستر آتیه به عنوان مجری تخصصی تاسیسات الکتریکال و مکانیکال، مسئولیت اجرای کامل تاسیسات الکتریکال بلوک‌های C1 و C2 این مجموعه را بر عهده داشته است. این عملیات شامل طراحی و اجرای سیستم‌های برق فشار ضعیف و فشار متوسط، شبکه روشنایی داخلی و محوطه، سیستم‌های ارتینگ و حفاظت، تابلوهای برق اصلی و فرعی، سیستم‌های اعلام و اطفای حریق الکتریکال، سیستم‌های مخابراتی و شبکه‌های هوشمند ساختمان بوده است. با توجه به زیربنای بیش از 60,000 مترمربع، اجرای این پروژه نیازمند برنامه‌ریزی دقیق، هماهنگی مستمر با سایر بخش‌های عمرانی و مکانیکال، و بهره‌گیری از تیم‌های متخصص در حوزه‌های مختلف تاسیسات الکتریکال بوده است. رعایت استانداردهای ملی و بین‌المللی، استفاده از تجهیزات باکیفیت و اجرای دقیق جزئیات فنی از جمله ویژگی‌های بارز این پروژه محسوب می‌شود. نتیجه نهایی، ایجاد زیرساخت‌های الکتریکال ایمن، پایدار و کارآمد برای برج‌های مسکونی همت یاس است که علاوه بر تامین نیازهای روزمره ساکنان، امکان بهره‌برداری از فناوری‌های نوین ساختمانی و سیستم‌های هوشمند را نیز فراهم می‌سازد. این پروژه نمونه‌ای موفق از توانمندی‌های شرکت آمود گستر آتیه در اجرای پروژه‌های بزرگ‌مقیاس تاسیساتی در سطح کشور به شمار می‌رود.</t>
+  </si>
+  <si>
+    <t>پروژه مجتمع مسکونی 2800 واحدی آسمان البرز، واقع در شهر گرمدره استان البرز، یکی از بزرگ‌ترین پروژه‌های مسکونی مشارکتی در غرب تهران به شمار می‌رود که با هدف تأمین مسکن مدرن و دسترسی آسان به امکانات شهری طراحی شده است. این مجموعه شامل چندین بلوک مسکونی با تیپ‌های مختلف از جمله بلوک‌های M1، M2 و M3 است و از موقعیت مکانی استراتژیک در نزدیکی بزرگراه‌های اصلی برخوردار است. شرکت آمود گستر آتیه، به عنوان مجری تخصصی تاسیسات الکتریکال و مکانیکال، مسئولیت اجرای کامل تاسیسات الکتریکال بلوک‌های تیپ M را بر عهده داشته است. این عملیات شامل طراحی و اجرای سیستم‌های برق فشار ضعیف و متوسط، شبکه روشنایی داخلی و محوطه، سیستم‌های ارتینگ و حفاظت، تابلوهای برق اصلی و فرعی، سیستم‌های اعلام و اطفای حریق الکتریکال، سیستم‌های مخابراتی و شبکه‌های هوشمند ساختمان بوده است. با توجه به مقیاس عظیم پروژه (2800 واحد مسکونی)، اجرای این بخش نیازمند برنامه‌ریزی دقیق، هماهنگی مستمر با سایر پیمانکاران عمرانی و بهره‌گیری از تیم‌های متخصص در حوزه تاسیسات الکتریکال بوده است. رعایت استانداردهای ملی و بین‌المللی، استفاده از تجهیزات باکیفیت و اجرای دقیق جزئیات فنی از ویژگی‌های برجسته این پروژه است. نتیجه، ایجاد زیرساخت‌های الکتریکال ایمن، پایدار و کارآمد برای ساکنان است که امکان بهره‌برداری از فناوری‌های نوین را فراهم می‌سازد. این پروژه نمونه‌ای از توانمندی‌های شرکت آمود گستر آتیه در اجرای پروژه‌های مسکونی بزرگ‌مقیاس است.</t>
+  </si>
+  <si>
+    <t>پروژه مجتمع مسکونی 2800 واحدی آسمان البرز، واقع در شهر گرمدره استان البرز، یکی از پروژه‌های شاخص مشارکتی در حوزه مسکن است که با تمرکز بر بلوک‌های تیپ C و B، امکانات رفاهی و دسترسی‌های شهری را برای ساکنان فراهم می‌کند. این مجموعه در نزدیکی بزرگراه‌های اصلی تهران قرار دارد و شامل واحدهای مسکونی متنوع با متراژهای مختلف است. شرکت آمود گستر آتیه به عنوان مجری تخصصی تاسیسات الکتریکال و مکانیکال، مسئولیت اجرای تاسیسات الکتریکال بلوک‌های تیپ C و B را بر عهده داشته است. عملیات شامل طراحی و اجرای سیستم‌های توزیع برق فشار ضعیف و متوسط، روشنایی داخلی و خارجی، سیستم‌های حفاظت و ارتینگ، تابلوهای برق، اعلام و اطفای حریق الکتریکی، مخابرات و اتوماسیون هوشمند ساختمان بوده است. با توجه به حجم بالای پروژه، هماهنگی دقیق با مراحل عمرانی و استفاده از تجهیزات مدرن ضروری بود. رعایت استانداردهای IEC و ISIRI، تضمین ایمنی و کارایی سیستم‌ها را به همراه داشت. این دستاورد، زیرساخت‌های الکتریکال پایدار و هوشمندی را برای بهره‌برداران ایجاد کرد و نمونه‌ای از expertise شرکت در پروژه‌های مسکونی بزرگ است.</t>
+  </si>
+  <si>
+    <t>پروژه 1400 واحدی افق اکباتان، واقع در غرب تهران و در تقاطع بزرگراه‌های شیخ فضل‌الله و حکیم، یکی از پروژه‌های کلیدی مسکونی-تجاری است که شامل بلوک‌های تجاری با زیربنای 17,000 مترمربع می‌شود. این مجموعه با مساحت کلی 15 هکتار، دسترسی عالی به مراکز شهری را فراهم می‌کند. شرکت آمود گستر آتیه، مجری تخصصی تاسیسات الکتریکال، مسئولیت اجرای سیستم‌های الکتریکال بلوک‌های تجاری را بر عهده داشته است. این شامل طراحی و نصب برق فشار متوسط، روشنایی محوطه و داخلی، سیستم‌های حفاظتی، تابلوهای توزیع، اعلام حریق و شبکه‌های هوشمند بوده است. با تمرکز بر استانداردهای ایمنی تجاری، پروژه با هماهنگی مراحل ساخت تکمیل شد. نتیجه، زیرساخت‌های الکتریکال کارآمد و ایمن برای فعالیت‌های تجاری است که کارایی انرژی و فناوری نوین را تضمین می‌کند. این پروژه، توانمندی شرکت در حوزه‌های مسکونی-تجاری را برجسته می‌سازد.</t>
+  </si>
+  <si>
+    <t>پروژه برج‌های مجتمع مسکونی نگین ساحل، واقع در منطقه ساحلی و با تمرکز بر زندگی لوکس، یکی از پروژه‌های مسکونی برجسته با زیربنای 50,000 مترمربع است. این مجموعه شامل برج‌های بلند با امکانات رفاهی بالا در نزدیکی سواحل قرار دارد. شرکت آمود گستر آتیه به عنوان مجری تاسیسات الکتریکال، سیستم‌های برق، روشنایی، حفاظت، اعلام حریق و هوشمندسازی را طراحی و اجرا کرده است. با رعایت استانداردهای ملی، پروژه ایمن و پایدار تحویل داده شد. این دستاورد، الگویی برای پروژه‌های ساحلی است.</t>
+  </si>
+  <si>
+    <t>پروژه جمع‌آوری آب‌های سطحی، فاضلاب، آب‌رسانی و روشنایی محوطه در افق اکباتان، واقع در غرب تهران، بخشی کلیدی از زیرساخت‌های پروژه 1400 واحدی است. این عملیات با لوله‌گذاری و سیستم‌های الکتریکال روشنایی، ایمنی و کارایی محوطه را تضمین می‌کند. شرکت آمود گستر آتیه، مسئولیت اجرای تاسیسات الکتریکال مرتبط را بر عهده داشته و با استانداردهای زیست‌محیطی، پروژه را تکمیل کرده است. نتیجه، محوطه‌ای پایدار و ایمن است.</t>
+  </si>
+  <si>
+    <t>پروژه برج‌های سروناز، واقع در منطقه 22 تهران شمال دریاچه چیتگر، شامل 12 بلوک مسکونی با ارتفاع‌های 4 تا 15 طبقه است. بلوک B1 با 13,000 مترمربع، بخشی از این مجتمع لوکس است. شرکت آمود گستر آتیه، تاسیسات الکتریکال شامل برق، روشنایی، حفاظت و هوشمندسازی را اجرا کرده است. با موقعیت عالی، پروژه ایمنی و کارایی را برای ساکنان فراهم می‌کند.</t>
+  </si>
+  <si>
+    <t>مشابه بلوک B1، بلوک A1 در برج‌های سروناز با تمرکز بر تاسیسات الکتریکال ایمن و مدرن اجرا شده است. شرکت آمود گستر آتیه، استانداردهای بالا را رعایت کرده تا زیرساخت‌های پایدار ایجاد شود.</t>
+  </si>
+  <si>
+    <t>پروژه فاز 2 نوسازی چراغ‌های شهری تهران، بخشی از برنامه زیباسازی شهرداری، شامل تهیه و نصب تجهیزات روشنایی مدرن است. شرکت آمود گستر آتیه، تاسیسات الکتریکال را با تمرکز بر کارایی انرژی و ایمنی اجرا کرده است. این پروژه، زیبایی و ایمنی شهری را ارتقا می‌دهد.</t>
+  </si>
+  <si>
+    <t>بلوک C در افق اکباتان با زیربنای 18,500 مترمربع، تاسیسات الکتریکال پیشرفته‌ای توسط شرکت آمود گستر آتیه اجرا شده است. شامل سیستم‌های هوشمند و حفاظتی برای ساکنان.</t>
+  </si>
+  <si>
+    <t>بلوک D مشابه بلوک C، با تمرکز بر تاسیسات الکتریکال ایمن و کارآمد تکمیل شده است.</t>
+  </si>
+  <si>
+    <t>بلوک C2B با 114 واحد در سروناز، تاسیسات الکتریکال را برای زندگی لوکس فراهم کرده است.</t>
+  </si>
+  <si>
+    <t>بلوک‌های A2 و B2 با متراژ 7,000 مترمربع، سیستم‌های الکتریکال هوشمند اجرا شده است.</t>
+  </si>
+  <si>
+    <t>بلوک‌های A3 و B3 با تمرکز بر ایمنی و کارایی تکمیل شده است.</t>
+  </si>
+  <si>
+    <t>بلوک‌های A4 و B4 بخشی از مجتمع سروناز با تاسیسات مدرن.</t>
+  </si>
+  <si>
+    <t>بلوک‌های A5 و B5 با سیستم‌های الکتریکال پیشرفته.</t>
+  </si>
+  <si>
+    <t>مجتمع ارغوان با 7 بلوک و 128 واحد، تاسیسات الکتریکال لوکس اجرا شده است.</t>
+  </si>
+  <si>
+    <t>ساختمان جام خلیج فارس، پروژه اداری-تجاری با تاسیسات الکتریکال ایمن.</t>
+  </si>
+  <si>
+    <t>پروژه مسکونی اساتید شریف در وردآورد، با تاسیسات الکتریکال تخصصی.</t>
+  </si>
+  <si>
+    <t>بیمارستان امام علی کرج، تاسیسات الکتریکال برای تجهیزات پزشکی اجرا شده است.</t>
+  </si>
+  <si>
+    <t>مجتمع آسمان سعادت آباد، پروژه EPC با تاسیسات کامل الکتریکال.</t>
+  </si>
+  <si>
+    <t>مجتمع فراز سعادت آباد، لوکس با تاسیسات هوشمند.</t>
+  </si>
+  <si>
+    <t>کارخانه سیمان ساروج بوشهر، تاسیسات برای ساختمان‌های جنبی صنعتی.</t>
+  </si>
+  <si>
+    <t>استخر چهارفصل انقلاب، تاسیسات روشنایی و الکتریکال برای امکانات ورزشی.</t>
+  </si>
+  <si>
+    <t>کارخانه نخ تایر کرمانشاه، تاسیسات صنعتی پیشرفته.</t>
+  </si>
+  <si>
+    <t>مرکز یاورشهر 3، بازسازی با تمرکز بر ایمنی و کارایی.</t>
   </si>
 </sst>
 </file>
@@ -437,20 +653,20 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -467,440 +683,632 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>98</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>93</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>92</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>91</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>90</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>89</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>88</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>87</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>86</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>85</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>84</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>82</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>81</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>79</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>78</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>74</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -908,7 +1316,10 @@
       <c r="E61" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:E27">
+    <sortCondition descending="1" ref="A27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="24" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="33" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/data/contracting-projects.xlsx
+++ b/public/data/contracting-projects.xlsx
@@ -653,7 +653,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,399 +683,399 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>79</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>94</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
+        <v>93</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>94</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>95</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>96</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>79</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>77</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1317,7 +1317,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E27">
-    <sortCondition descending="1" ref="A27"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
